--- a/100runs/run045/NotionalETEOutput045.xlsx
+++ b/100runs/run045/NotionalETEOutput045.xlsx
@@ -49,22 +49,22 @@
     <t>tUp</t>
   </si>
   <si>
-    <t>Missile_HIGHWIND_State_Update</t>
-  </si>
-  <si>
     <t>Missile_BRAVER_State_Update</t>
   </si>
   <si>
-    <t>MISSILE_HIGHWIND_92.MISSILE_HIGHWIND_92</t>
+    <t>Missile_SOMERSAULT_State_Update</t>
   </si>
   <si>
-    <t>MISSILE_BRAVER_67.MISSILE_BRAVER_67</t>
+    <t>MISSILE_BRAVER_108.MISSILE_BRAVER_108</t>
   </si>
   <si>
-    <t>MISSILE_HIGHWIND</t>
+    <t>MISSILE_SOMERSAULT_28.MISSILE_SOMERSAULT_28</t>
   </si>
   <si>
     <t>MISSILE_BRAVER</t>
+  </si>
+  <si>
+    <t>MISSILE_SOMERSAULT</t>
   </si>
 </sst>
 </file>
@@ -480,22 +480,22 @@
         <v>152.142</v>
       </c>
       <c r="F2">
-        <v>175.7470885757972</v>
+        <v>1116577.325895794</v>
       </c>
       <c r="G2">
-        <v>-117.96832978855</v>
+        <v>4841120.880037957</v>
       </c>
       <c r="H2">
-        <v>704.1678797972177</v>
+        <v>3985223.526519597</v>
       </c>
       <c r="I2">
-        <v>-951.0007815670316</v>
+        <v>1114862.108530679</v>
       </c>
       <c r="J2">
-        <v>1049.758475043516</v>
+        <v>4843230.962550038</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>3984373.086166668</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -515,22 +515,22 @@
         <v>153.142</v>
       </c>
       <c r="F3">
-        <v>175.7470885757972</v>
+        <v>1116577.325895794</v>
       </c>
       <c r="G3">
-        <v>-117.96832978855</v>
+        <v>4841120.880037957</v>
       </c>
       <c r="H3">
-        <v>704.1678797972177</v>
+        <v>3985223.526519597</v>
       </c>
       <c r="I3">
-        <v>-932.2254938736291</v>
+        <v>1114891.722547095</v>
       </c>
       <c r="J3">
-        <v>1024.222266506352</v>
+        <v>4843182.310884576</v>
       </c>
       <c r="K3">
-        <v>305.9641390144001</v>
+        <v>3984676.882369466</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -550,22 +550,22 @@
         <v>154.142</v>
       </c>
       <c r="F4">
-        <v>175.7470885757972</v>
+        <v>1116577.325895794</v>
       </c>
       <c r="G4">
-        <v>-117.96832978855</v>
+        <v>4841120.880037957</v>
       </c>
       <c r="H4">
-        <v>704.1678797972177</v>
+        <v>3985223.526519597</v>
       </c>
       <c r="I4">
-        <v>-912.9878819937248</v>
+        <v>1114922.06578142</v>
       </c>
       <c r="J4">
-        <v>998.6860579691883</v>
+        <v>4843133.659219112</v>
       </c>
       <c r="K4">
-        <v>596.6715035682781</v>
+        <v>3984965.529901042</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -585,22 +585,22 @@
         <v>155.142</v>
       </c>
       <c r="F5">
-        <v>175.7470885757972</v>
+        <v>1116577.325895794</v>
       </c>
       <c r="G5">
-        <v>-117.96832978855</v>
+        <v>4841120.880037957</v>
       </c>
       <c r="H5">
-        <v>704.1678797972177</v>
+        <v>3985223.526519597</v>
       </c>
       <c r="I5">
-        <v>-893.2765616195561</v>
+        <v>1114953.156189975</v>
       </c>
       <c r="J5">
-        <v>973.1498494320246</v>
+        <v>4843085.00755365</v>
       </c>
       <c r="K5">
-        <v>872.1220936616362</v>
+        <v>3985239.028761393</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -620,22 +620,22 @@
         <v>156.142</v>
       </c>
       <c r="F6">
-        <v>175.7470885757972</v>
+        <v>1116577.325895794</v>
       </c>
       <c r="G6">
-        <v>-117.96832978855</v>
+        <v>4841120.880037957</v>
       </c>
       <c r="H6">
-        <v>704.1678797972177</v>
+        <v>3985223.526519597</v>
       </c>
       <c r="I6">
-        <v>-873.0798681152559</v>
+        <v>1114985.012171238</v>
       </c>
       <c r="J6">
-        <v>947.613640894861</v>
+        <v>4843036.355888187</v>
       </c>
       <c r="K6">
-        <v>1132.315909294472</v>
+        <v>3985497.378950522</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -655,22 +655,22 @@
         <v>157.142</v>
       </c>
       <c r="F7">
-        <v>175.7470885757972</v>
+        <v>1116577.325895794</v>
       </c>
       <c r="G7">
-        <v>-117.96832978855</v>
+        <v>4841120.880037957</v>
       </c>
       <c r="H7">
-        <v>704.1678797972177</v>
+        <v>3985223.526519597</v>
       </c>
       <c r="I7">
-        <v>-852.3858496140292</v>
+        <v>1115017.652576733</v>
       </c>
       <c r="J7">
-        <v>922.0774323576971</v>
+        <v>4842987.704222725</v>
       </c>
       <c r="K7">
-        <v>1377.252950466789</v>
+        <v>3985740.580468427</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -690,22 +690,22 @@
         <v>158.142</v>
       </c>
       <c r="F8">
-        <v>175.7470885757972</v>
+        <v>1116577.325895794</v>
       </c>
       <c r="G8">
-        <v>-117.96832978855</v>
+        <v>4841120.880037957</v>
       </c>
       <c r="H8">
-        <v>704.1678797972177</v>
+        <v>3985223.526519597</v>
       </c>
       <c r="I8">
-        <v>-831.1822599453579</v>
+        <v>1115051.096722185</v>
       </c>
       <c r="J8">
-        <v>896.5412238205334</v>
+        <v>4842939.052557261</v>
       </c>
       <c r="K8">
-        <v>1606.933217178585</v>
+        <v>3985968.633315109</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -725,22 +725,22 @@
         <v>159.142</v>
       </c>
       <c r="F9">
-        <v>175.7470885757972</v>
+        <v>1116577.325895794</v>
       </c>
       <c r="G9">
-        <v>-117.96832978855</v>
+        <v>4841120.880037957</v>
       </c>
       <c r="H9">
-        <v>704.1678797972177</v>
+        <v>3985223.526519597</v>
       </c>
       <c r="I9">
-        <v>-809.4565513880406</v>
+        <v>1115085.36439895</v>
       </c>
       <c r="J9">
-        <v>871.0050152833697</v>
+        <v>4842890.400891799</v>
       </c>
       <c r="K9">
-        <v>1821.35670942986</v>
+        <v>3986181.537490568</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -760,22 +760,22 @@
         <v>160.142</v>
       </c>
       <c r="F10">
-        <v>175.7470885757972</v>
+        <v>1116577.325895794</v>
       </c>
       <c r="G10">
-        <v>-98.48843795043676</v>
+        <v>4841137.392844604</v>
       </c>
       <c r="H10">
-        <v>704.1678797972177</v>
+        <v>3985223.526519597</v>
       </c>
       <c r="I10">
-        <v>-787.1958672447846</v>
+        <v>1115120.47588573</v>
       </c>
       <c r="J10">
-        <v>845.468806746206</v>
+        <v>4842841.749226335</v>
       </c>
       <c r="K10">
-        <v>2020.523427220613</v>
+        <v>3986379.292994803</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -795,22 +795,22 @@
         <v>161.142</v>
       </c>
       <c r="F11">
-        <v>136.4002427677908</v>
+        <v>1116528.645383381</v>
       </c>
       <c r="G11">
-        <v>-79.00854611232349</v>
+        <v>4841153.905651251</v>
       </c>
       <c r="H11">
-        <v>867.5300895252052</v>
+        <v>3985422.780686288</v>
       </c>
       <c r="I11">
-        <v>-764.3870342339548</v>
+        <v>1115156.45196057</v>
       </c>
       <c r="J11">
-        <v>819.9325982090425</v>
+        <v>4842793.097560873</v>
       </c>
       <c r="K11">
-        <v>2204.433370550845</v>
+        <v>3986561.899827815</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -830,22 +830,22 @@
         <v>162.142</v>
       </c>
       <c r="F12">
-        <v>113.2859447064463</v>
+        <v>1116500.048024416</v>
       </c>
       <c r="G12">
-        <v>-59.52865427421023</v>
+        <v>4841170.418457898</v>
       </c>
       <c r="H12">
-        <v>964.8369762997778</v>
+        <v>3985541.466658214</v>
       </c>
       <c r="I12">
-        <v>-741.0165546939749</v>
+        <v>1115193.313913155</v>
       </c>
       <c r="J12">
-        <v>794.3963896718788</v>
+        <v>4842744.445895409</v>
       </c>
       <c r="K12">
-        <v>2373.086539420557</v>
+        <v>3986729.357989604</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -865,22 +865,22 @@
         <v>163.142</v>
       </c>
       <c r="F13">
-        <v>98.69450401942301</v>
+        <v>1116481.995273429</v>
       </c>
       <c r="G13">
-        <v>-40.04876243609695</v>
+        <v>4841186.931264546</v>
       </c>
       <c r="H13">
-        <v>1034.375631556511</v>
+        <v>3985626.283500672</v>
       </c>
       <c r="I13">
-        <v>-717.0705985957695</v>
+        <v>1115231.083557411</v>
       </c>
       <c r="J13">
-        <v>768.860181134715</v>
+        <v>4842695.794229947</v>
       </c>
       <c r="K13">
-        <v>2526.482933829748</v>
+        <v>3986881.667480169</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -900,22 +900,22 @@
         <v>164.142</v>
       </c>
       <c r="F14">
-        <v>88.51849251442798</v>
+        <v>1116469.405358172</v>
       </c>
       <c r="G14">
-        <v>-20.56887059798368</v>
+        <v>4841203.444071192</v>
       </c>
       <c r="H14">
-        <v>1088.525345149567</v>
+        <v>3985692.330330452</v>
       </c>
       <c r="I14">
-        <v>-692.534995358522</v>
+        <v>1115269.783244409</v>
       </c>
       <c r="J14">
-        <v>743.3239725975512</v>
+        <v>4842647.142564484</v>
       </c>
       <c r="K14">
-        <v>2664.622553778418</v>
+        <v>3987018.828299511</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -935,22 +935,22 @@
         <v>165.142</v>
       </c>
       <c r="F15">
-        <v>80.92688319492667</v>
+        <v>1116460.012904364</v>
       </c>
       <c r="G15">
-        <v>-1.088978759870422</v>
+        <v>4841219.95687784</v>
       </c>
       <c r="H15">
-        <v>1132.878160816925</v>
+        <v>3985746.427807102</v>
       </c>
       <c r="I15">
-        <v>-667.3952254638982</v>
+        <v>1115309.435875596</v>
       </c>
       <c r="J15">
-        <v>717.7877640603876</v>
+        <v>4842598.490899022</v>
       </c>
       <c r="K15">
-        <v>2787.505399266568</v>
+        <v>3987140.840447629</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -970,22 +970,22 @@
         <v>166.142</v>
       </c>
       <c r="F16">
-        <v>74.99130484388846</v>
+        <v>1116452.669317104</v>
       </c>
       <c r="G16">
-        <v>18.39091307824285</v>
+        <v>4841236.469684486</v>
       </c>
       <c r="H16">
-        <v>1170.441758088552</v>
+        <v>3985792.2444209</v>
       </c>
       <c r="I16">
-        <v>-641.6364118637836</v>
+        <v>1115350.064916346</v>
       </c>
       <c r="J16">
-        <v>692.2515555232239</v>
+        <v>4842549.839233558</v>
       </c>
       <c r="K16">
-        <v>2895.131470294196</v>
+        <v>3987247.703924525</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -1005,22 +1005,22 @@
         <v>167.142</v>
       </c>
       <c r="F17">
-        <v>70.1889897742675</v>
+        <v>1116446.727820307</v>
       </c>
       <c r="G17">
-        <v>37.87080491635612</v>
+        <v>4841252.982491134</v>
       </c>
       <c r="H17">
-        <v>1203.021337371063</v>
+        <v>3985831.981988921</v>
       </c>
       <c r="I17">
-        <v>-615.2433111764399</v>
+        <v>1115391.694409847</v>
       </c>
       <c r="J17">
-        <v>666.7153469860604</v>
+        <v>4842501.187568096</v>
       </c>
       <c r="K17">
-        <v>2987.500766861303</v>
+        <v>3987339.418730196</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1040,22 +1040,22 @@
         <v>168.142</v>
       </c>
       <c r="F18">
-        <v>66.20135710576163</v>
+        <v>1116441.794260891</v>
       </c>
       <c r="G18">
-        <v>57.35069675446938</v>
+        <v>4841269.495297781</v>
       </c>
       <c r="H18">
-        <v>1231.785882007655</v>
+        <v>3985867.066329304</v>
       </c>
       <c r="I18">
-        <v>-588.200304665878</v>
+        <v>1115434.348991327</v>
       </c>
       <c r="J18">
-        <v>641.1791384488965</v>
+        <v>4842452.535902632</v>
       </c>
       <c r="K18">
-        <v>3064.61328896789</v>
+        <v>3987415.984864645</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1075,22 +1075,22 @@
         <v>169.142</v>
       </c>
       <c r="F19">
-        <v>62.82213845128203</v>
+        <v>1116437.61344049</v>
       </c>
       <c r="G19">
-        <v>76.83058859258267</v>
+        <v>4841286.008104428</v>
       </c>
       <c r="H19">
-        <v>1257.535937714471</v>
+        <v>3985898.47387393</v>
       </c>
       <c r="I19">
-        <v>-560.4913889991032</v>
+        <v>1115478.053902634</v>
       </c>
       <c r="J19">
-        <v>615.6429299117328</v>
+        <v>4842403.88423717</v>
       </c>
       <c r="K19">
-        <v>3126.469036613956</v>
+        <v>3987477.40232787</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1110,22 +1110,22 @@
         <v>170.142</v>
       </c>
       <c r="F20">
-        <v>59.91127125825758</v>
+        <v>1116434.012071597</v>
       </c>
       <c r="G20">
-        <v>96.31048043069593</v>
+        <v>4841302.520911074</v>
       </c>
       <c r="H20">
-        <v>1280.843827817838</v>
+        <v>3985926.90269004</v>
       </c>
       <c r="I20">
-        <v>-532.1001667757688</v>
+        <v>1115522.835007175</v>
       </c>
       <c r="J20">
-        <v>590.1067213745692</v>
+        <v>4842355.232571706</v>
       </c>
       <c r="K20">
-        <v>3173.068009799501</v>
+        <v>3987523.671119872</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1145,22 +1145,22 @@
         <v>171.142</v>
       </c>
       <c r="F21">
-        <v>57.36993378919078</v>
+        <v>1116430.867890465</v>
       </c>
       <c r="G21">
-        <v>115.7903722688092</v>
+        <v>4841319.033717722</v>
       </c>
       <c r="H21">
-        <v>1302.132924082281</v>
+        <v>3985952.869167495</v>
       </c>
       <c r="I21">
-        <v>-503.0098368246307</v>
+        <v>1115568.718805216</v>
       </c>
       <c r="J21">
-        <v>564.5705128374055</v>
+        <v>4842306.580906244</v>
       </c>
       <c r="K21">
-        <v>3204.410208524525</v>
+        <v>3987554.791240651</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1180,22 +1180,22 @@
         <v>172.142</v>
       </c>
       <c r="F22">
-        <v>55.12617299752085</v>
+        <v>1116428.091875696</v>
       </c>
       <c r="G22">
-        <v>135.2702641069225</v>
+        <v>4841335.546524368</v>
       </c>
       <c r="H22">
-        <v>1321.725233371744</v>
+        <v>3985976.766060586</v>
       </c>
       <c r="I22">
-        <v>-473.2031842610583</v>
+        <v>1115615.732449573</v>
       </c>
       <c r="J22">
-        <v>539.0343043002418</v>
+        <v>4842257.929240781</v>
       </c>
       <c r="K22">
-        <v>3220.495632789029</v>
+        <v>3987570.762690206</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1215,22 +1215,22 @@
         <v>173.142</v>
       </c>
       <c r="F23">
-        <v>53.12620371830941</v>
+        <v>1116425.617483472</v>
       </c>
       <c r="G23">
-        <v>154.7501559450357</v>
+        <v>4841352.059331016</v>
       </c>
       <c r="H23">
-        <v>1339.871378354283</v>
+        <v>3985998.899055745</v>
       </c>
       <c r="I23">
-        <v>-442.6625702997255</v>
+        <v>1115663.90376167</v>
       </c>
       <c r="J23">
-        <v>513.4980957630781</v>
+        <v>4842209.277575319</v>
       </c>
       <c r="K23">
-        <v>3221.324282593011</v>
+        <v>3987571.585468538</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1250,22 +1250,22 @@
         <v>174.142</v>
       </c>
       <c r="F24">
-        <v>51.32891546779101</v>
+        <v>1116423.39385128</v>
       </c>
       <c r="G24">
-        <v>174.230047783149</v>
+        <v>4841368.572137663</v>
       </c>
       <c r="H24">
-        <v>1356.770253094871</v>
+        <v>3986019.510745622</v>
       </c>
       <c r="I24">
-        <v>-411.3699218164448</v>
+        <v>1115713.26124801</v>
       </c>
       <c r="J24">
-        <v>487.9618872259144</v>
+        <v>4842160.625909855</v>
       </c>
       <c r="K24">
-        <v>3206.896157936472</v>
+        <v>3987557.259575646</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1285,22 +1285,22 @@
         <v>175.142</v>
       </c>
       <c r="F25">
-        <v>49.70227895494813</v>
+        <v>1116421.381351997</v>
       </c>
       <c r="G25">
-        <v>193.7099396212623</v>
+        <v>4841385.08494431</v>
       </c>
       <c r="H25">
-        <v>1372.582346991476</v>
+        <v>3986038.796880391</v>
       </c>
       <c r="I25">
-        <v>-379.3067206529716</v>
+        <v>1115763.834117044</v>
       </c>
       <c r="J25">
-        <v>462.4256786887508</v>
+        <v>4842111.974244392</v>
       </c>
       <c r="K25">
-        <v>3177.211258819413</v>
+        <v>3987527.785011531</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1320,22 +1320,22 @@
         <v>176.142</v>
       </c>
       <c r="F26">
-        <v>48.22092268200737</v>
+        <v>1116419.548595624</v>
       </c>
       <c r="G26">
-        <v>213.1898314593756</v>
+        <v>4841401.597750957</v>
       </c>
       <c r="H26">
-        <v>1387.439037147065</v>
+        <v>3986056.917701735</v>
       </c>
       <c r="I26">
-        <v>-346.4539926584523</v>
+        <v>1115815.652296451</v>
       </c>
       <c r="J26">
-        <v>436.8894701515871</v>
+        <v>4842063.322578929</v>
       </c>
       <c r="K26">
-        <v>3132.269585241833</v>
+        <v>3987483.161776193</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1355,22 +1355,22 @@
         <v>177.142</v>
       </c>
       <c r="F27">
-        <v>46.86445497336165</v>
+        <v>1116417.87035327</v>
       </c>
       <c r="G27">
-        <v>232.6697232974888</v>
+        <v>4841418.110557604</v>
       </c>
       <c r="H27">
-        <v>1401.449229864408</v>
+        <v>3986074.006043523</v>
       </c>
       <c r="I27">
-        <v>-312.7922964610235</v>
+        <v>1115868.746450854</v>
       </c>
       <c r="J27">
-        <v>411.3532616144233</v>
+        <v>4842014.670913466</v>
       </c>
       <c r="K27">
-        <v>3072.071137203732</v>
+        <v>3987423.389869631</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1390,22 +1390,22 @@
         <v>178.142</v>
       </c>
       <c r="F28">
-        <v>45.6162750395231</v>
+        <v>1116416.326086188</v>
       </c>
       <c r="G28">
-        <v>252.1496151356021</v>
+        <v>4841434.623364251</v>
       </c>
       <c r="H28">
-        <v>1414.704209962386</v>
+        <v>3986090.173246564</v>
       </c>
       <c r="I28">
-        <v>-278.3017119629259</v>
+        <v>1115923.147999964</v>
       </c>
       <c r="J28">
-        <v>385.8170530772597</v>
+        <v>4841966.019248003</v>
       </c>
       <c r="K28">
-        <v>2996.61591470511</v>
+        <v>3987348.469291846</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -1425,22 +1425,22 @@
         <v>179.142</v>
       </c>
       <c r="F29">
-        <v>44.46271324198757</v>
+        <v>1116414.898882094</v>
       </c>
       <c r="G29">
-        <v>271.6295069737154</v>
+        <v>4841451.136170899</v>
       </c>
       <c r="H29">
-        <v>1427.281248650714</v>
+        <v>3986105.513559158</v>
       </c>
       <c r="I29">
-        <v>-242.9618285523181</v>
+        <v>1115978.889137172</v>
       </c>
       <c r="J29">
-        <v>360.280844540096</v>
+        <v>4841917.367582541</v>
       </c>
       <c r="K29">
-        <v>2905.903917745968</v>
+        <v>3987258.400042838</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -1460,22 +1460,22 @@
         <v>180.142</v>
       </c>
       <c r="F30">
-        <v>43.39239807226543</v>
+        <v>1116413.574671987</v>
       </c>
       <c r="G30">
-        <v>291.1093988118286</v>
+        <v>4841467.648977545</v>
       </c>
       <c r="H30">
-        <v>1439.246332834643</v>
+        <v>3986120.10746605</v>
       </c>
       <c r="I30">
-        <v>-206.7517330248207</v>
+        <v>1116036.002848603</v>
       </c>
       <c r="J30">
-        <v>334.7446360029322</v>
+        <v>4841868.715917078</v>
       </c>
       <c r="K30">
-        <v>2799.935146326304</v>
+        <v>3987153.182122607</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -1495,22 +1495,22 @@
         <v>181.142</v>
       </c>
       <c r="F31">
-        <v>42.39578246672514</v>
+        <v>1116412.341644095</v>
       </c>
       <c r="G31">
-        <v>310.5892906499419</v>
+        <v>4841484.161784193</v>
       </c>
       <c r="H31">
-        <v>1450.656260703881</v>
+        <v>3986134.024244437</v>
       </c>
       <c r="I31">
-        <v>-169.649997207636</v>
+        <v>1116094.522932634</v>
       </c>
       <c r="J31">
-        <v>309.2084274657686</v>
+        <v>4841820.064251615</v>
       </c>
       <c r="K31">
-        <v>2678.70960044612</v>
+        <v>3987032.815531152</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -1530,22 +1530,22 @@
         <v>182.142</v>
       </c>
       <c r="F32">
-        <v>41.46478416040618</v>
+        <v>1116411.189798917</v>
       </c>
       <c r="G32">
-        <v>330.0691824880552</v>
+        <v>4841500.67459084</v>
       </c>
       <c r="H32">
-        <v>1461.560272368139</v>
+        <v>3986147.323952866</v>
       </c>
       <c r="I32">
-        <v>-131.6346652789241</v>
+        <v>1116154.484019897</v>
       </c>
       <c r="J32">
-        <v>283.6722189286049</v>
+        <v>4841771.412586152</v>
       </c>
       <c r="K32">
-        <v>2542.227280105414</v>
+        <v>3986897.300268474</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1565,22 +1565,22 @@
         <v>183.142</v>
       </c>
       <c r="F33">
-        <v>40.59250901080594</v>
+        <v>1116410.110606916</v>
       </c>
       <c r="G33">
-        <v>349.5490743261684</v>
+        <v>4841517.187397487</v>
       </c>
       <c r="H33">
-        <v>1472.001334089609</v>
+        <v>3986160.058997625</v>
       </c>
       <c r="I33">
-        <v>-92.68324077493158</v>
+        <v>1116215.921593771</v>
       </c>
       <c r="J33">
-        <v>258.1360103914413</v>
+        <v>4841722.760920689</v>
       </c>
       <c r="K33">
-        <v>2390.488185304188</v>
+        <v>3986746.636334572</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1600,22 +1600,22 @@
         <v>184.142</v>
       </c>
       <c r="F34">
-        <v>39.77303559173665</v>
+        <v>1116409.096742015</v>
       </c>
       <c r="G34">
-        <v>369.0289661642817</v>
+        <v>4841533.700204134</v>
       </c>
       <c r="H34">
-        <v>1482.017160830641</v>
+        <v>3986172.275379946</v>
       </c>
       <c r="I34">
-        <v>-52.77267327718164</v>
+        <v>1116278.87201138</v>
       </c>
       <c r="J34">
-        <v>232.5998018542776</v>
+        <v>4841674.109255226</v>
       </c>
       <c r="K34">
-        <v>2223.492316042441</v>
+        <v>3986580.823729447</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1635,22 +1635,22 @@
         <v>185.142</v>
       </c>
       <c r="F35">
-        <v>39.00124564965203</v>
+        <v>1116408.141871832</v>
       </c>
       <c r="G35">
-        <v>388.508858002395</v>
+        <v>4841550.213010781</v>
       </c>
       <c r="H35">
-        <v>1491.641038606261</v>
+        <v>3986184.013699045</v>
       </c>
       <c r="I35">
-        <v>-11.87934477184863</v>
+        <v>1116343.372525109</v>
       </c>
       <c r="J35">
-        <v>207.0635933171138</v>
+        <v>4841625.457589763</v>
       </c>
       <c r="K35">
-        <v>2041.239672320173</v>
+        <v>3986399.862453099</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1670,22 +1670,22 @@
         <v>186.142</v>
       </c>
       <c r="F36">
-        <v>38.27268931712366</v>
+        <v>1116407.240490924</v>
       </c>
       <c r="G36">
-        <v>407.9887498405083</v>
+        <v>4841566.725817428</v>
       </c>
       <c r="H36">
-        <v>1500.902491907849</v>
+        <v>3986195.309966175</v>
       </c>
       <c r="I36">
-        <v>30.02094432675594</v>
+        <v>1116409.461304649</v>
       </c>
       <c r="J36">
-        <v>181.5273847799502</v>
+        <v>4841576.8059243</v>
       </c>
       <c r="K36">
-        <v>1843.730254137385</v>
+        <v>3986203.752505528</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1705,22 +1705,22 @@
         <v>187.142</v>
       </c>
       <c r="F37">
-        <v>37.58347696833054</v>
+        <v>1116406.387786987</v>
       </c>
       <c r="G37">
-        <v>427.4686416786215</v>
+        <v>4841583.238624074</v>
       </c>
       <c r="H37">
-        <v>1509.827829955623</v>
+        <v>3986206.196270897</v>
       </c>
       <c r="I37">
-        <v>72.95298949685443</v>
+        <v>1116477.177459585</v>
       </c>
       <c r="J37">
-        <v>155.9911762427865</v>
+        <v>4841528.154258838</v>
       </c>
       <c r="K37">
-        <v>1630.964061494075</v>
+        <v>3985992.493886732</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1740,22 +1740,22 @@
         <v>188.142</v>
       </c>
       <c r="F38">
-        <v>36.93019171107154</v>
+        <v>1116405.579532592</v>
       </c>
       <c r="G38">
-        <v>446.9485335167348</v>
+        <v>4841599.751430721</v>
       </c>
       <c r="H38">
-        <v>1518.440597256027</v>
+        <v>3986216.70133063</v>
       </c>
       <c r="I38">
-        <v>116.9421967825097</v>
+        <v>1116546.561062539</v>
       </c>
       <c r="J38">
-        <v>130.4549677056229</v>
+        <v>4841479.502593375</v>
       </c>
       <c r="K38">
-        <v>1402.941094390246</v>
+        <v>3985766.086596714</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1775,22 +1775,22 @@
         <v>189.142</v>
       </c>
       <c r="F39">
-        <v>36.30981801893698</v>
+        <v>1116404.811996882</v>
       </c>
       <c r="G39">
-        <v>466.4284253548481</v>
+        <v>4841616.264237368</v>
       </c>
       <c r="H39">
-        <v>1526.761947902069</v>
+        <v>3986226.850947188</v>
       </c>
       <c r="I39">
-        <v>162.0145978282451</v>
+        <v>1116617.653172883</v>
       </c>
       <c r="J39">
-        <v>104.9187591684591</v>
+        <v>4841430.850927912</v>
       </c>
       <c r="K39">
-        <v>1159.661352825894</v>
+        <v>3985524.530635472</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1810,22 +1810,22 @@
         <v>190.142</v>
       </c>
       <c r="F40">
-        <v>35.71968310067155</v>
+        <v>1116404.081873041</v>
       </c>
       <c r="G40">
-        <v>485.9083171929613</v>
+        <v>4841632.777044016</v>
       </c>
       <c r="H40">
-        <v>1534.810958598704</v>
+        <v>3986236.668388576</v>
       </c>
       <c r="I40">
-        <v>208.1968652838835</v>
+        <v>1116690.495861041</v>
       </c>
       <c r="J40">
-        <v>79.38255063129539</v>
+        <v>4841382.199262449</v>
       </c>
       <c r="K40">
-        <v>901.1248368010213</v>
+        <v>3985267.826003008</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1845,22 +1845,22 @@
         <v>191.142</v>
       </c>
       <c r="F41">
-        <v>35.15740840537075</v>
+        <v>1116403.386218288</v>
       </c>
       <c r="G41">
-        <v>505.3882090310746</v>
+        <v>4841649.289850662</v>
       </c>
       <c r="H41">
-        <v>1542.604892069846</v>
+        <v>3986246.174710274</v>
       </c>
       <c r="I41">
-        <v>255.5163285887093</v>
+        <v>1116765.132233382</v>
       </c>
       <c r="J41">
-        <v>53.84634209413178</v>
+        <v>4841333.547596986</v>
       </c>
       <c r="K41">
-        <v>627.3315463156288</v>
+        <v>3984995.972699319</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -1880,22 +1880,22 @@
         <v>192.142</v>
       </c>
       <c r="F42">
-        <v>34.62086925633665</v>
+        <v>1116402.722403943</v>
       </c>
       <c r="G42">
-        <v>524.8681008691879</v>
+        <v>4841665.80265731</v>
       </c>
       <c r="H42">
-        <v>1550.159419995872</v>
+        <v>3986255.389027154</v>
       </c>
       <c r="I42">
-        <v>304.0009901443094</v>
+        <v>1116841.606457726</v>
       </c>
       <c r="J42">
-        <v>28.31013355696804</v>
+        <v>4841284.895931523</v>
       </c>
       <c r="K42">
-        <v>338.2814813697145</v>
+        <v>3984708.970724408</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -1915,22 +1915,22 @@
         <v>193.142</v>
       </c>
       <c r="F43">
-        <v>34.10816105136639</v>
+        <v>1116402.088073601</v>
       </c>
       <c r="G43">
-        <v>544.3479927073012</v>
+        <v>4841682.315463957</v>
       </c>
       <c r="H43">
-        <v>1557.488812720925</v>
+        <v>3986264.328744866</v>
       </c>
       <c r="I43">
-        <v>353.6795418856451</v>
+        <v>1116919.963789491</v>
       </c>
       <c r="J43">
-        <v>2.773925019804311</v>
+        <v>4841236.24426606</v>
       </c>
       <c r="K43">
-        <v>33.97464196327967</v>
+        <v>3984406.820078273</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -1950,22 +1950,22 @@
         <v>194.142</v>
       </c>
       <c r="F44">
-        <v>33.6175708036489</v>
+        <v>1116401.481107931</v>
       </c>
       <c r="G44">
-        <v>563.8278845454143</v>
+        <v>4841698.828270604</v>
       </c>
       <c r="H44">
-        <v>1564.60610150216</v>
+        <v>3986273.009757737</v>
       </c>
       <c r="I44">
-        <v>404.5813822601812</v>
+        <v>1117000.250598462</v>
       </c>
       <c r="J44">
-        <v>-22.7622835173593</v>
+        <v>4841187.592600597</v>
       </c>
       <c r="K44">
-        <v>-285.5889719036751</v>
+        <v>3984089.520760914</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -1985,22 +1985,22 @@
         <v>195.142</v>
       </c>
       <c r="F45">
-        <v>33.14755305405784</v>
+        <v>1116400.899594866</v>
       </c>
       <c r="G45">
-        <v>583.3077763835277</v>
+        <v>4841715.341077251</v>
       </c>
       <c r="H45">
-        <v>1571.523217936179</v>
+        <v>3986281.446618828</v>
       </c>
       <c r="I45">
-        <v>456.736633625106</v>
+        <v>1117082.514396242</v>
       </c>
       <c r="J45">
-        <v>-48.29849205452304</v>
+        <v>4841138.940935135</v>
       </c>
       <c r="K45">
-        <v>-620.4093602311518</v>
+        <v>3983757.072772333</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -2020,22 +2020,22 @@
         <v>196.142</v>
       </c>
       <c r="F46">
-        <v>32.69670938302405</v>
+        <v>1116400.341804261</v>
       </c>
       <c r="G46">
-        <v>602.787668221641</v>
+        <v>4841731.853883898</v>
       </c>
       <c r="H46">
-        <v>1578.251114309904</v>
+        <v>3986289.652686729</v>
       </c>
       <c r="I46">
-        <v>510.1761600729409</v>
+        <v>1117166.803864361</v>
       </c>
       <c r="J46">
-        <v>-73.83470059168677</v>
+        <v>4841090.289269671</v>
       </c>
       <c r="K46">
-        <v>-970.48652301915</v>
+        <v>3983409.476112528</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -2055,22 +2055,22 @@
         <v>197.142</v>
       </c>
       <c r="F47">
-        <v>32.26377090322106</v>
+        <v>1116399.80616623</v>
       </c>
       <c r="G47">
-        <v>622.2675600597541</v>
+        <v>4841748.366690545</v>
       </c>
       <c r="H47">
-        <v>1584.799867924447</v>
+        <v>3986297.640252804</v>
       </c>
       <c r="I47">
-        <v>564.9315856960909</v>
+        <v>1117253.168883087</v>
       </c>
       <c r="J47">
-        <v>-99.3709091288505</v>
+        <v>4841041.637604208</v>
       </c>
       <c r="K47">
-        <v>-1335.820460267669</v>
+        <v>3983046.7307815</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -2090,22 +2090,22 @@
         <v>198.142</v>
       </c>
       <c r="F48">
-        <v>31.84758323383947</v>
+        <v>1116399.291252554</v>
       </c>
       <c r="G48">
-        <v>641.7474518978674</v>
+        <v>4841764.879497193</v>
       </c>
       <c r="H48">
-        <v>1591.178771886827</v>
+        <v>3986305.420651928</v>
       </c>
       <c r="I48">
-        <v>621.0353133011428</v>
+        <v>1117341.660560946</v>
       </c>
       <c r="J48">
-        <v>-124.907117666014</v>
+        <v>4840992.985938746</v>
       </c>
       <c r="K48">
-        <v>-1716.411171976705</v>
+        <v>3982668.836779248</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -2125,22 +2125,22 @@
         <v>199.142</v>
       </c>
       <c r="F49">
-        <v>31.44709355125963</v>
+        <v>1116398.795760664</v>
       </c>
       <c r="G49">
-        <v>661.2273437359808</v>
+        <v>4841781.392303839</v>
       </c>
       <c r="H49">
-        <v>1597.396414422738</v>
+        <v>3986313.004359226</v>
       </c>
       <c r="I49">
-        <v>678.5205435839868</v>
+        <v>1117432.33126496</v>
       </c>
       <c r="J49">
-        <v>-150.4433262031777</v>
+        <v>4840944.334273282</v>
       </c>
       <c r="K49">
-        <v>-2112.258658146265</v>
+        <v>3982275.794105773</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -2160,22 +2160,22 @@
         <v>200.142</v>
       </c>
       <c r="F50">
-        <v>31.06133938538436</v>
+        <v>1116398.318499779</v>
       </c>
       <c r="G50">
-        <v>680.7072355740941</v>
+        <v>4841797.905110487</v>
       </c>
       <c r="H50">
-        <v>1603.460748409055</v>
+        <v>3986320.401074887</v>
       </c>
       <c r="I50">
-        <v>737.4212947771032</v>
+        <v>1117525.234651645</v>
       </c>
       <c r="J50">
-        <v>-175.9795347403415</v>
+        <v>4840895.682607819</v>
       </c>
       <c r="K50">
-        <v>-2523.362918776347</v>
+        <v>3981867.602761074</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -2195,22 +2195,22 @@
         <v>201.142</v>
       </c>
       <c r="F51">
-        <v>30.68943889021622</v>
+        <v>1116397.858378865</v>
       </c>
       <c r="G51">
-        <v>700.1871274122072</v>
+        <v>4841814.417917134</v>
       </c>
       <c r="H51">
-        <v>1609.379152538565</v>
+        <v>3986327.619798758</v>
       </c>
       <c r="I51">
-        <v>797.7724227806526</v>
+        <v>1117620.425698759</v>
       </c>
       <c r="J51">
-        <v>-201.5157432775052</v>
+        <v>4840847.030942356</v>
       </c>
       <c r="K51">
-        <v>-2949.723953866949</v>
+        <v>3981444.262745153</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -2230,22 +2230,22 @@
         <v>202.142</v>
       </c>
       <c r="F52">
-        <v>30.33058236481219</v>
+        <v>1116397.414396147</v>
       </c>
       <c r="G52">
-        <v>719.6670192503205</v>
+        <v>4841830.930723781</v>
       </c>
       <c r="H52">
-        <v>1615.158485296969</v>
+        <v>3986334.668896188</v>
       </c>
       <c r="I52">
-        <v>859.6096417892704</v>
+        <v>1117717.960737833</v>
       </c>
       <c r="J52">
-        <v>-227.0519518146689</v>
+        <v>4840798.379276894</v>
       </c>
       <c r="K52">
-        <v>-3391.341763418071</v>
+        <v>3981005.774058008</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -2265,22 +2265,22 @@
         <v>203.142</v>
       </c>
       <c r="F53">
-        <v>29.98402483906937</v>
+        <v>1116396.985629938</v>
       </c>
       <c r="G53">
-        <v>739.1469110884339</v>
+        <v>4841847.443530427</v>
       </c>
       <c r="H53">
-        <v>1620.805132742524</v>
+        <v>3986341.556156303</v>
       </c>
       <c r="I53">
-        <v>922.9695454267757</v>
+        <v>1117817.897487513</v>
       </c>
       <c r="J53">
-        <v>-252.5881603518324</v>
+        <v>4840749.727611431</v>
       </c>
       <c r="K53">
-        <v>-3848.216347429712</v>
+        <v>3980552.13669964</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -2300,22 +2300,22 @@
         <v>204.142</v>
       </c>
       <c r="F54">
-        <v>29.64907956985355</v>
+        <v>1116396.571230587</v>
       </c>
       <c r="G54">
-        <v>758.626802926547</v>
+        <v>4841863.956337075</v>
       </c>
       <c r="H54">
-        <v>1626.325050923046</v>
+        <v>3986348.288843741</v>
       </c>
       <c r="I54">
-        <v>987.8896284013131</v>
+        <v>1117920.295087715</v>
       </c>
       <c r="J54">
-        <v>-278.1243688889962</v>
+        <v>4840701.075945968</v>
       </c>
       <c r="K54">
-        <v>-4320.347705901877</v>
+        <v>3980083.350670048</v>
       </c>
     </row>
     <row r="55" spans="1:11">
@@ -2335,22 +2335,22 @@
         <v>152.142</v>
       </c>
       <c r="F55">
-        <v>126.1379130018591</v>
+        <v>1116578.100537693</v>
       </c>
       <c r="G55">
-        <v>-96.74301390225126</v>
+        <v>4841121.992863234</v>
       </c>
       <c r="H55">
-        <v>1339.118576008438</v>
+        <v>3985224.665321453</v>
       </c>
       <c r="I55">
-        <v>-1219.721491384619</v>
+        <v>1114861.565190712</v>
       </c>
       <c r="J55">
-        <v>2299.113722824039</v>
+        <v>4843225.864331129</v>
       </c>
       <c r="K55">
-        <v>0</v>
+        <v>3984363.953915179</v>
       </c>
     </row>
     <row r="56" spans="1:11">
@@ -2370,22 +2370,22 @@
         <v>153.142</v>
       </c>
       <c r="F56">
-        <v>126.1379130018591</v>
+        <v>1116578.100537693</v>
       </c>
       <c r="G56">
-        <v>-96.74301390225126</v>
+        <v>4841121.992863234</v>
       </c>
       <c r="H56">
-        <v>1339.118576008438</v>
+        <v>3985224.665321453</v>
       </c>
       <c r="I56">
-        <v>-1195.640941346756</v>
+        <v>1114891.179192695</v>
       </c>
       <c r="J56">
-        <v>2243.185955749564</v>
+        <v>4843177.21271688</v>
       </c>
       <c r="K56">
-        <v>331.5012641604032</v>
+        <v>3984667.749421671</v>
       </c>
     </row>
     <row r="57" spans="1:11">
@@ -2405,22 +2405,22 @@
         <v>154.142</v>
       </c>
       <c r="F57">
-        <v>126.1379130018591</v>
+        <v>1116578.100537693</v>
       </c>
       <c r="G57">
-        <v>-96.74301390225126</v>
+        <v>4841121.992863234</v>
       </c>
       <c r="H57">
-        <v>1339.118576008438</v>
+        <v>3985224.665321453</v>
       </c>
       <c r="I57">
-        <v>-1170.96742991791</v>
+        <v>1114921.522412232</v>
       </c>
       <c r="J57">
-        <v>2187.25818867509</v>
+        <v>4843128.56110263</v>
       </c>
       <c r="K57">
-        <v>646.4723557425253</v>
+        <v>3984956.396291662</v>
       </c>
     </row>
     <row r="58" spans="1:11">
@@ -2440,22 +2440,22 @@
         <v>155.142</v>
       </c>
       <c r="F58">
-        <v>126.1379130018591</v>
+        <v>1116578.100537693</v>
       </c>
       <c r="G58">
-        <v>-96.74301390225126</v>
+        <v>4841121.992863234</v>
       </c>
       <c r="H58">
-        <v>1339.118576008438</v>
+        <v>3985224.665321453</v>
       </c>
       <c r="I58">
-        <v>-1145.686355969343</v>
+        <v>1114952.612805635</v>
       </c>
       <c r="J58">
-        <v>2131.330421600615</v>
+        <v>4843079.90948838</v>
       </c>
       <c r="K58">
-        <v>944.9132747463686</v>
+        <v>3985229.894525149</v>
       </c>
     </row>
     <row r="59" spans="1:11">
@@ -2475,22 +2475,22 @@
         <v>156.142</v>
       </c>
       <c r="F59">
-        <v>126.1379130018591</v>
+        <v>1116578.100537693</v>
       </c>
       <c r="G59">
-        <v>-96.74301390225126</v>
+        <v>4841121.992863234</v>
       </c>
       <c r="H59">
-        <v>1339.118576008438</v>
+        <v>3985224.665321453</v>
       </c>
       <c r="I59">
-        <v>-1119.782758832954</v>
+        <v>1114984.468771373</v>
       </c>
       <c r="J59">
-        <v>2075.40265452614</v>
+        <v>4843031.25787413</v>
       </c>
       <c r="K59">
-        <v>1226.824021171931</v>
+        <v>3985488.244122135</v>
       </c>
     </row>
     <row r="60" spans="1:11">
@@ -2510,22 +2510,22 @@
         <v>157.142</v>
       </c>
       <c r="F60">
-        <v>126.1379130018591</v>
+        <v>1116578.100537693</v>
       </c>
       <c r="G60">
-        <v>-96.74301390225126</v>
+        <v>4841121.992863234</v>
       </c>
       <c r="H60">
-        <v>1339.118576008438</v>
+        <v>3985224.665321453</v>
       </c>
       <c r="I60">
-        <v>-1093.241309447954</v>
+        <v>1115017.10916096</v>
       </c>
       <c r="J60">
-        <v>2019.474887451666</v>
+        <v>4842982.606259881</v>
       </c>
       <c r="K60">
-        <v>1492.204595019216</v>
+        <v>3985731.445082618</v>
       </c>
     </row>
     <row r="61" spans="1:11">
@@ -2545,22 +2545,22 @@
         <v>158.142</v>
       </c>
       <c r="F61">
-        <v>126.1379130018591</v>
+        <v>1116578.100537693</v>
       </c>
       <c r="G61">
-        <v>-96.74301390225126</v>
+        <v>4841121.992863234</v>
       </c>
       <c r="H61">
-        <v>1339.118576008438</v>
+        <v>3985224.665321453</v>
       </c>
       <c r="I61">
-        <v>-1066.046301289534</v>
+        <v>1115050.553290112</v>
       </c>
       <c r="J61">
-        <v>1963.547120377191</v>
+        <v>4842933.95464563</v>
       </c>
       <c r="K61">
-        <v>1741.054996288219</v>
+        <v>3985959.497406599</v>
       </c>
     </row>
     <row r="62" spans="1:11">
@@ -2580,22 +2580,22 @@
         <v>159.142</v>
       </c>
       <c r="F62">
-        <v>126.1379130018591</v>
+        <v>1116578.100537693</v>
       </c>
       <c r="G62">
-        <v>-96.74301390225126</v>
+        <v>4841121.992863234</v>
       </c>
       <c r="H62">
-        <v>1339.118576008438</v>
+        <v>3985224.665321453</v>
       </c>
       <c r="I62">
-        <v>-1038.181641074162</v>
+        <v>1115084.820950177</v>
       </c>
       <c r="J62">
-        <v>1907.619353302716</v>
+        <v>4842885.30303138</v>
       </c>
       <c r="K62">
-        <v>1973.375224978944</v>
+        <v>3986172.401094078</v>
       </c>
     </row>
     <row r="63" spans="1:11">
@@ -2615,22 +2615,22 @@
         <v>160.142</v>
       </c>
       <c r="F63">
-        <v>126.1379130018591</v>
+        <v>1116578.100537693</v>
       </c>
       <c r="G63">
-        <v>-80.76801917030197</v>
+        <v>4841138.505673678</v>
       </c>
       <c r="H63">
-        <v>1339.118576008438</v>
+        <v>3985224.665321453</v>
       </c>
       <c r="I63">
-        <v>-1009.630839236003</v>
+        <v>1115119.932419844</v>
       </c>
       <c r="J63">
-        <v>1851.691586228242</v>
+        <v>4842836.651417132</v>
       </c>
       <c r="K63">
-        <v>2189.165281091387</v>
+        <v>3986370.156145053</v>
       </c>
     </row>
     <row r="64" spans="1:11">
@@ -2650,22 +2650,22 @@
         <v>161.142</v>
       </c>
       <c r="F64">
-        <v>97.89773529167557</v>
+        <v>1116529.419991507</v>
       </c>
       <c r="G64">
-        <v>-64.79302443835267</v>
+        <v>4841155.018484119</v>
       </c>
       <c r="H64">
-        <v>1649.785074638754</v>
+        <v>3985423.919545082</v>
       </c>
       <c r="I64">
-        <v>-980.3770001688362</v>
+        <v>1115155.908477151</v>
       </c>
       <c r="J64">
-        <v>1795.763819153767</v>
+        <v>4842787.999802882</v>
       </c>
       <c r="K64">
-        <v>2388.425164625551</v>
+        <v>3986552.762559528</v>
       </c>
     </row>
     <row r="65" spans="1:11">
@@ -2685,22 +2685,22 @@
         <v>162.142</v>
       </c>
       <c r="F65">
-        <v>81.30804756718472</v>
+        <v>1116500.822612702</v>
       </c>
       <c r="G65">
-        <v>-48.8180297064034</v>
+        <v>4841171.531294563</v>
       </c>
       <c r="H65">
-        <v>1834.833929310888</v>
+        <v>3985542.605550923</v>
       </c>
       <c r="I65">
-        <v>-950.4028122276786</v>
+        <v>1115192.770411771</v>
       </c>
       <c r="J65">
-        <v>1739.836052079293</v>
+        <v>4842739.348188631</v>
       </c>
       <c r="K65">
-        <v>2571.154875581436</v>
+        <v>3986720.220337499</v>
       </c>
     </row>
     <row r="66" spans="1:11">
@@ -2720,22 +2720,22 @@
         <v>163.142</v>
       </c>
       <c r="F66">
-        <v>70.83541959441614</v>
+        <v>1116482.769849191</v>
       </c>
       <c r="G66">
-        <v>-32.84303497445411</v>
+        <v>4841188.044105006</v>
       </c>
       <c r="H66">
-        <v>1967.075838771107</v>
+        <v>3985627.422417618</v>
       </c>
       <c r="I66">
-        <v>-919.6905374842167</v>
+        <v>1115230.54003762</v>
       </c>
       <c r="J66">
-        <v>1683.908285004818</v>
+        <v>4842690.696574382</v>
       </c>
       <c r="K66">
-        <v>2737.354413959041</v>
+        <v>3986872.529478969</v>
       </c>
     </row>
     <row r="67" spans="1:11">
@@ -2755,22 +2755,22 @@
         <v>164.142</v>
       </c>
       <c r="F67">
-        <v>63.53185135709999</v>
+        <v>1116470.179925199</v>
       </c>
       <c r="G67">
-        <v>-16.86804024250482</v>
+        <v>4841204.556915448</v>
       </c>
       <c r="H67">
-        <v>2070.052542819125</v>
+        <v>3985693.469266272</v>
       </c>
       <c r="I67">
-        <v>-888.2220012299723</v>
+        <v>1115269.239705757</v>
       </c>
       <c r="J67">
-        <v>1627.980517930343</v>
+        <v>4842642.044960132</v>
       </c>
       <c r="K67">
-        <v>2887.023779758367</v>
+        <v>3987009.689983936</v>
       </c>
     </row>
     <row r="68" spans="1:11">
@@ -2790,22 +2790,22 @@
         <v>165.142</v>
       </c>
       <c r="F68">
-        <v>58.08317073514839</v>
+        <v>1116460.787464875</v>
       </c>
       <c r="G68">
-        <v>-0.8930455105555453</v>
+        <v>4841221.069725892</v>
       </c>
       <c r="H68">
-        <v>2154.398451035701</v>
+        <v>3985747.56675838</v>
       </c>
       <c r="I68">
-        <v>-855.9785812209897</v>
+        <v>1115308.892317619</v>
       </c>
       <c r="J68">
-        <v>1572.052750855869</v>
+        <v>4842593.393345882</v>
       </c>
       <c r="K68">
-        <v>3020.162972979411</v>
+        <v>3987131.7018524</v>
       </c>
     </row>
     <row r="69" spans="1:11">
@@ -2825,22 +2825,22 @@
         <v>166.142</v>
       </c>
       <c r="F69">
-        <v>53.82306337447326</v>
+        <v>1116453.443872521</v>
       </c>
       <c r="G69">
-        <v>15.08194922139375</v>
+        <v>4841237.582536334</v>
       </c>
       <c r="H69">
-        <v>2225.833278342254</v>
+        <v>3985793.383385271</v>
       </c>
       <c r="I69">
-        <v>-822.9411966576882</v>
+        <v>1115349.521338568</v>
       </c>
       <c r="J69">
-        <v>1516.124983781394</v>
+        <v>4842544.741731632</v>
       </c>
       <c r="K69">
-        <v>3136.771993622177</v>
+        <v>3987238.565084363</v>
       </c>
     </row>
     <row r="70" spans="1:11">
@@ -2860,22 +2860,22 @@
         <v>167.142</v>
       </c>
       <c r="F70">
-        <v>50.37632633109907</v>
+        <v>1116447.502371601</v>
       </c>
       <c r="G70">
-        <v>31.05694395334304</v>
+        <v>4841254.095346777</v>
       </c>
       <c r="H70">
-        <v>2287.78998080973</v>
+        <v>3985833.120964647</v>
       </c>
       <c r="I70">
-        <v>-789.0902968933517</v>
+        <v>1115391.15081178</v>
       </c>
       <c r="J70">
-        <v>1460.19721670692</v>
+        <v>4842496.090117382</v>
       </c>
       <c r="K70">
-        <v>3236.850841686663</v>
+        <v>3987330.279679822</v>
       </c>
     </row>
     <row r="71" spans="1:11">
@@ -2895,22 +2895,22 @@
         <v>168.142</v>
       </c>
       <c r="F71">
-        <v>47.51430644388807</v>
+        <v>1116442.568808762</v>
       </c>
       <c r="G71">
-        <v>47.03193868529231</v>
+        <v>4841270.60815722</v>
       </c>
       <c r="H71">
-        <v>2342.491618243658</v>
+        <v>3985868.205315055</v>
       </c>
       <c r="I71">
-        <v>-754.4058498645755</v>
+        <v>1115433.805372472</v>
       </c>
       <c r="J71">
-        <v>1404.269449632445</v>
+        <v>4842447.438503133</v>
       </c>
       <c r="K71">
-        <v>3320.399517172869</v>
+        <v>3987406.84563878</v>
       </c>
     </row>
     <row r="72" spans="1:11">
@@ -2930,22 +2930,22 @@
         <v>169.142</v>
       </c>
       <c r="F72">
-        <v>45.08895992971709</v>
+        <v>1116438.387985461</v>
       </c>
       <c r="G72">
-        <v>63.00693341724162</v>
+        <v>4841287.120967662</v>
       </c>
       <c r="H72">
-        <v>2391.46059129619</v>
+        <v>3985899.612868655</v>
       </c>
       <c r="I72">
-        <v>-718.8673302368215</v>
+        <v>1115477.510262479</v>
       </c>
       <c r="J72">
-        <v>1348.34168255797</v>
+        <v>4842398.786888883</v>
       </c>
       <c r="K72">
-        <v>3387.418020080795</v>
+        <v>3987468.262961235</v>
       </c>
     </row>
     <row r="73" spans="1:11">
@@ -2965,22 +2965,22 @@
         <v>170.142</v>
       </c>
       <c r="F73">
-        <v>42.99976052545311</v>
+        <v>1116434.78661407</v>
       </c>
       <c r="G73">
-        <v>78.98192814919089</v>
+        <v>4841303.633778105</v>
       </c>
       <c r="H73">
-        <v>2435.785289284361</v>
+        <v>3985928.04169289</v>
       </c>
       <c r="I73">
-        <v>-682.4537072580727</v>
+        <v>1115522.291345195</v>
       </c>
       <c r="J73">
-        <v>1292.413915483496</v>
+        <v>4842350.135274633</v>
       </c>
       <c r="K73">
-        <v>3437.906350410442</v>
+        <v>3987514.531647189</v>
       </c>
     </row>
     <row r="74" spans="1:11">
@@ -3000,22 +3000,22 @@
         <v>171.142</v>
       </c>
       <c r="F74">
-        <v>41.17578149297395</v>
+        <v>1116431.642430756</v>
       </c>
       <c r="G74">
-        <v>94.95692288114017</v>
+        <v>4841320.146588549</v>
       </c>
       <c r="H74">
-        <v>2476.27083980728</v>
+        <v>3985954.008177765</v>
       </c>
       <c r="I74">
-        <v>-645.1434323133911</v>
+        <v>1115568.175120875</v>
       </c>
       <c r="J74">
-        <v>1236.486148409021</v>
+        <v>4842301.483660383</v>
       </c>
       <c r="K74">
-        <v>3471.864508161808</v>
+        <v>3987545.651696639</v>
       </c>
     </row>
     <row r="75" spans="1:11">
@@ -3035,22 +3035,22 @@
         <v>172.142</v>
       </c>
       <c r="F75">
-        <v>39.56538039995909</v>
+        <v>1116428.866414062</v>
       </c>
       <c r="G75">
-        <v>110.9319176130895</v>
+        <v>4841336.659398991</v>
       </c>
       <c r="H75">
-        <v>2513.529604470017</v>
+        <v>3985977.905077684</v>
       </c>
       <c r="I75">
-        <v>-606.9144261730203</v>
+        <v>1115615.188742319</v>
       </c>
       <c r="J75">
-        <v>1180.558381334547</v>
+        <v>4842252.832046133</v>
       </c>
       <c r="K75">
-        <v>3489.292493334895</v>
+        <v>3987561.623109587</v>
       </c>
     </row>
     <row r="76" spans="1:11">
@@ -3070,22 +3070,22 @@
         <v>173.142</v>
       </c>
       <c r="F76">
-        <v>38.12995433975006</v>
+        <v>1116426.392020121</v>
       </c>
       <c r="G76">
-        <v>126.9069123450387</v>
+        <v>4841353.172209434</v>
       </c>
       <c r="H76">
-        <v>2548.038193296956</v>
+        <v>3986000.038079169</v>
       </c>
       <c r="I76">
-        <v>-567.7440659264834</v>
+        <v>1115663.360030939</v>
       </c>
       <c r="J76">
-        <v>1124.630614260072</v>
+        <v>4842204.180431884</v>
       </c>
       <c r="K76">
-        <v>3490.190305929702</v>
+        <v>3987562.445886034</v>
       </c>
     </row>
     <row r="77" spans="1:11">
@@ -3105,22 +3105,22 @@
         <v>174.142</v>
       </c>
       <c r="F77">
-        <v>36.83999732925097</v>
+        <v>1116424.168386386</v>
       </c>
       <c r="G77">
-        <v>142.8819070769881</v>
+        <v>4841369.685019878</v>
       </c>
       <c r="H77">
-        <v>2580.174843842958</v>
+        <v>3986020.649774935</v>
       </c>
       <c r="I77">
-        <v>-527.6091715949464</v>
+        <v>1115712.717493224</v>
       </c>
       <c r="J77">
-        <v>1068.702847185597</v>
+        <v>4842155.528817633</v>
       </c>
       <c r="K77">
-        <v>3474.55794594623</v>
+        <v>3987548.120025977</v>
       </c>
     </row>
     <row r="78" spans="1:11">
@@ -3140,22 +3140,22 @@
         <v>175.142</v>
       </c>
       <c r="F78">
-        <v>35.67252117584584</v>
+        <v>1116422.155885707</v>
       </c>
       <c r="G78">
-        <v>158.8569018089373</v>
+        <v>4841386.197830319</v>
       </c>
       <c r="H78">
-        <v>2610.244759370247</v>
+        <v>3986039.935915215</v>
       </c>
       <c r="I78">
-        <v>-486.4859924139207</v>
+        <v>1115763.290337611</v>
       </c>
       <c r="J78">
-        <v>1012.775080111123</v>
+        <v>4842106.877203384</v>
       </c>
       <c r="K78">
-        <v>3442.395413384477</v>
+        <v>3987518.645529418</v>
       </c>
     </row>
     <row r="79" spans="1:11">
@@ -3175,22 +3175,22 @@
         <v>176.142</v>
       </c>
       <c r="F79">
-        <v>34.60931614528073</v>
+        <v>1116420.323128062</v>
       </c>
       <c r="G79">
-        <v>174.8318965408866</v>
+        <v>4841402.710640763</v>
       </c>
       <c r="H79">
-        <v>2638.497780185511</v>
+        <v>3986058.056741737</v>
       </c>
       <c r="I79">
-        <v>-444.3501927781936</v>
+        <v>1115815.108491763</v>
       </c>
       <c r="J79">
-        <v>956.847313036648</v>
+        <v>4842058.225589135</v>
       </c>
       <c r="K79">
-        <v>3393.702708244445</v>
+        <v>3987474.022396357</v>
       </c>
     </row>
     <row r="80" spans="1:11">
@@ -3210,22 +3210,22 @@
         <v>177.142</v>
       </c>
       <c r="F80">
-        <v>33.63574664145824</v>
+        <v>1116418.644884544</v>
       </c>
       <c r="G80">
-        <v>190.8068912728359</v>
+        <v>4841419.223451206</v>
       </c>
       <c r="H80">
-        <v>2665.141013794313</v>
+        <v>3986075.145088408</v>
       </c>
       <c r="I80">
-        <v>-401.1768378406616</v>
+        <v>1115868.202620291</v>
       </c>
       <c r="J80">
-        <v>900.9195459621733</v>
+        <v>4842009.573974884</v>
       </c>
       <c r="K80">
-        <v>3328.479830526133</v>
+        <v>3987414.250626794</v>
       </c>
     </row>
     <row r="81" spans="1:11">
@@ -3245,22 +3245,22 @@
         <v>178.142</v>
       </c>
       <c r="F81">
-        <v>32.73989787843711</v>
+        <v>1116417.100616391</v>
       </c>
       <c r="G81">
-        <v>206.7818860047852</v>
+        <v>4841435.736261648</v>
       </c>
       <c r="H81">
-        <v>2690.348056863269</v>
+        <v>3986091.312296069</v>
       </c>
       <c r="I81">
-        <v>-356.9403787565513</v>
+        <v>1115922.604142888</v>
       </c>
       <c r="J81">
-        <v>844.9917788876988</v>
+        <v>4841960.922360634</v>
       </c>
       <c r="K81">
-        <v>3246.726780229541</v>
+        <v>3987339.330220728</v>
       </c>
     </row>
     <row r="82" spans="1:11">
@@ -3280,22 +3280,22 @@
         <v>179.142</v>
       </c>
       <c r="F82">
-        <v>31.91195882784482</v>
+        <v>1116415.673411307</v>
       </c>
       <c r="G82">
-        <v>222.7568807367345</v>
+        <v>4841452.249072092</v>
       </c>
       <c r="H82">
-        <v>2714.265856328316</v>
+        <v>3986106.652613047</v>
       </c>
       <c r="I82">
-        <v>-311.6146375642904</v>
+        <v>1115978.345252929</v>
       </c>
       <c r="J82">
-        <v>789.0640118132242</v>
+        <v>4841912.270746385</v>
       </c>
       <c r="K82">
-        <v>3148.44355735467</v>
+        <v>3987249.261178161</v>
       </c>
     </row>
     <row r="83" spans="1:11">
@@ -3315,22 +3315,22 @@
         <v>180.142</v>
       </c>
       <c r="F83">
-        <v>31.14376788450095</v>
+        <v>1116414.349200281</v>
       </c>
       <c r="G83">
-        <v>238.7318754686837</v>
+        <v>4841468.761882533</v>
       </c>
       <c r="H83">
-        <v>2737.019899723221</v>
+        <v>3986121.246524109</v>
       </c>
       <c r="I83">
-        <v>-265.1727916940876</v>
+        <v>1116035.458936526</v>
       </c>
       <c r="J83">
-        <v>733.1362447387495</v>
+        <v>4841863.619132135</v>
       </c>
       <c r="K83">
-        <v>3033.630161901518</v>
+        <v>3987144.043499091</v>
       </c>
     </row>
     <row r="84" spans="1:11">
@@ -3350,22 +3350,22 @@
         <v>181.142</v>
       </c>
       <c r="F84">
-        <v>30.42847289118605</v>
+        <v>1116413.116171533</v>
       </c>
       <c r="G84">
-        <v>254.7068702006331</v>
+        <v>4841485.274692977</v>
       </c>
       <c r="H84">
-        <v>2758.718200368535</v>
+        <v>3986135.163306473</v>
       </c>
       <c r="I84">
-        <v>-217.5873580950459</v>
+        <v>1116093.978992037</v>
       </c>
       <c r="J84">
-        <v>677.2084776642751</v>
+        <v>4841814.967517884</v>
       </c>
       <c r="K84">
-        <v>2902.286593870088</v>
+        <v>3987023.677183518</v>
       </c>
     </row>
     <row r="85" spans="1:11">
@@ -3385,22 +3385,22 @@
         <v>182.142</v>
       </c>
       <c r="F85">
-        <v>29.76027301192211</v>
+        <v>1116411.964325556</v>
       </c>
       <c r="G85">
-        <v>270.6818649325824</v>
+        <v>4841501.78750342</v>
       </c>
       <c r="H85">
-        <v>2779.45439835704</v>
+        <v>3986148.463018703</v>
       </c>
       <c r="I85">
-        <v>-168.830176971424</v>
+        <v>1116153.940050077</v>
       </c>
       <c r="J85">
-        <v>621.2807105898003</v>
+        <v>4841766.315903635</v>
       </c>
       <c r="K85">
-        <v>2754.412853260376</v>
+        <v>3986888.162231443</v>
       </c>
     </row>
     <row r="86" spans="1:11">
@@ -3420,22 +3420,22 @@
         <v>183.142</v>
       </c>
       <c r="F86">
-        <v>29.13422015479892</v>
+        <v>1116410.885132807</v>
       </c>
       <c r="G86">
-        <v>286.6568596645316</v>
+        <v>4841518.300313862</v>
       </c>
       <c r="H86">
-        <v>2799.310202783248</v>
+        <v>3986161.1980671</v>
       </c>
       <c r="I86">
-        <v>-118.8723951184167</v>
+        <v>1116215.377594008</v>
       </c>
       <c r="J86">
-        <v>565.3529435153258</v>
+        <v>4841717.664289386</v>
       </c>
       <c r="K86">
-        <v>2590.008940072386</v>
+        <v>3986737.498642866</v>
       </c>
     </row>
     <row r="87" spans="1:11">
@@ -3455,22 +3455,22 @@
         <v>184.142</v>
       </c>
       <c r="F87">
-        <v>28.54606436980384</v>
+        <v>1116409.871267202</v>
       </c>
       <c r="G87">
-        <v>302.6318543964809</v>
+        <v>4841534.813124306</v>
       </c>
       <c r="H87">
-        <v>2818.357336325977</v>
+        <v>3986173.414452913</v>
       </c>
       <c r="I87">
-        <v>-67.68444884759563</v>
+        <v>1116278.327980938</v>
       </c>
       <c r="J87">
-        <v>509.4251764408511</v>
+        <v>4841669.012675136</v>
       </c>
       <c r="K87">
-        <v>2409.074854306116</v>
+        <v>3986571.686417786</v>
       </c>
     </row>
     <row r="88" spans="1:11">
@@ -3490,22 +3490,22 @@
         <v>185.142</v>
       </c>
       <c r="F88">
-        <v>27.992132163249</v>
+        <v>1116408.916396357</v>
       </c>
       <c r="G88">
-        <v>318.6068491284302</v>
+        <v>4841551.325934748</v>
       </c>
       <c r="H88">
-        <v>2836.659099119075</v>
+        <v>3986185.152775366</v>
       </c>
       <c r="I88">
-        <v>-15.2360464919029</v>
+        <v>1116342.828463232</v>
       </c>
       <c r="J88">
-        <v>453.4974093663765</v>
+        <v>4841620.361060886</v>
       </c>
       <c r="K88">
-        <v>2211.610595961565</v>
+        <v>3986390.725556204</v>
       </c>
     </row>
     <row r="89" spans="1:11">
@@ -3525,22 +3525,22 @@
         <v>186.142</v>
       </c>
       <c r="F89">
-        <v>27.46922975824113</v>
+        <v>1116408.015014824</v>
       </c>
       <c r="G89">
-        <v>334.5818438603795</v>
+        <v>4841567.838745191</v>
       </c>
       <c r="H89">
-        <v>2854.271637993417</v>
+        <v>3986196.449045724</v>
       </c>
       <c r="I89">
-        <v>38.50384952015352</v>
+        <v>1116408.917210563</v>
       </c>
       <c r="J89">
-        <v>397.569642291902</v>
+        <v>4841571.709446636</v>
       </c>
       <c r="K89">
-        <v>1997.616165038736</v>
+        <v>3986194.61605812</v>
       </c>
     </row>
     <row r="90" spans="1:11">
@@ -3560,22 +3560,22 @@
         <v>187.142</v>
       </c>
       <c r="F90">
-        <v>26.97456547676497</v>
+        <v>1116407.162310296</v>
       </c>
       <c r="G90">
-        <v>350.5568385923287</v>
+        <v>4841584.351555634</v>
       </c>
       <c r="H90">
-        <v>2871.244985287205</v>
+        <v>3986207.335353557</v>
       </c>
       <c r="I90">
-        <v>93.56704103170895</v>
+        <v>1116476.633332497</v>
       </c>
       <c r="J90">
-        <v>341.6418752174273</v>
+        <v>4841523.057832386</v>
       </c>
       <c r="K90">
-        <v>1767.091561537626</v>
+        <v>3985983.357923533</v>
       </c>
     </row>
     <row r="91" spans="1:11">
@@ -3595,22 +3595,22 @@
         <v>188.142</v>
       </c>
       <c r="F91">
-        <v>26.5056869330957</v>
+        <v>1116406.354055339</v>
       </c>
       <c r="G91">
-        <v>366.5318333242781</v>
+        <v>4841600.864366077</v>
       </c>
       <c r="H91">
-        <v>2887.62391567257</v>
+        <v>3986217.840416292</v>
       </c>
       <c r="I91">
-        <v>149.9861129770296</v>
+        <v>1116546.016901635</v>
       </c>
       <c r="J91">
-        <v>285.7141081429529</v>
+        <v>4841474.406218137</v>
       </c>
       <c r="K91">
-        <v>1520.036785458237</v>
+        <v>3985756.951152444</v>
       </c>
     </row>
     <row r="92" spans="1:11">
@@ -3630,22 +3630,22 @@
         <v>189.142</v>
       </c>
       <c r="F92">
-        <v>26.06042981139174</v>
+        <v>1116405.586519097</v>
       </c>
       <c r="G92">
-        <v>382.5068280562274</v>
+        <v>4841617.377176519</v>
       </c>
       <c r="H92">
-        <v>2903.44865796386</v>
+        <v>3986227.99003575</v>
       </c>
       <c r="I92">
-        <v>207.7944526644088</v>
+        <v>1116617.108977332</v>
       </c>
       <c r="J92">
-        <v>229.7863410684782</v>
+        <v>4841425.754603886</v>
       </c>
       <c r="K92">
-        <v>1256.451836800567</v>
+        <v>3985515.395744853</v>
       </c>
     </row>
     <row r="93" spans="1:11">
@@ -3665,22 +3665,22 @@
         <v>190.142</v>
       </c>
       <c r="F93">
-        <v>25.63687578507613</v>
+        <v>1116404.856394749</v>
       </c>
       <c r="G93">
-        <v>398.4818227881766</v>
+        <v>4841633.889986963</v>
       </c>
       <c r="H93">
-        <v>2918.755490399128</v>
+        <v>3986237.807479943</v>
       </c>
       <c r="I93">
-        <v>267.0262695338928</v>
+        <v>1116689.95162999</v>
       </c>
       <c r="J93">
-        <v>173.8585739940035</v>
+        <v>4841377.102989637</v>
       </c>
       <c r="K93">
-        <v>976.336715564618</v>
+        <v>3985258.69170076</v>
       </c>
     </row>
     <row r="94" spans="1:11">
@@ -3700,22 +3700,22 @@
         <v>191.142</v>
       </c>
       <c r="F94">
-        <v>25.23331771094956</v>
+        <v>1116404.160739514</v>
       </c>
       <c r="G94">
-        <v>414.4568175201259</v>
+        <v>4841650.402797405</v>
       </c>
       <c r="H94">
-        <v>2933.577241562199</v>
+        <v>3986247.313804358</v>
       </c>
       <c r="I94">
-        <v>327.7166154015147</v>
+        <v>1116764.587965955</v>
       </c>
       <c r="J94">
-        <v>117.930806919529</v>
+        <v>4841328.451375388</v>
       </c>
       <c r="K94">
-        <v>679.6914217503896</v>
+        <v>3984986.839020164</v>
       </c>
     </row>
     <row r="95" spans="1:11">
@@ -3735,22 +3735,22 @@
         <v>192.142</v>
       </c>
       <c r="F95">
-        <v>24.84823065743763</v>
+        <v>1116403.496924708</v>
       </c>
       <c r="G95">
-        <v>430.4318122520752</v>
+        <v>4841666.915607848</v>
       </c>
       <c r="H95">
-        <v>2947.943714343703</v>
+        <v>3986256.528123871</v>
       </c>
       <c r="I95">
-        <v>389.9014052020337</v>
+        <v>1116841.062153029</v>
       </c>
       <c r="J95">
-        <v>62.0030398450543</v>
+        <v>4841279.799761138</v>
       </c>
       <c r="K95">
-        <v>366.5159553578807</v>
+        <v>3984699.837703065</v>
       </c>
     </row>
     <row r="96" spans="1:11">
@@ -3770,22 +3770,22 @@
         <v>193.142</v>
       </c>
       <c r="F96">
-        <v>24.48024764572483</v>
+        <v>1116402.862593926</v>
       </c>
       <c r="G96">
-        <v>446.4068069840246</v>
+        <v>4841683.428418292</v>
       </c>
       <c r="H96">
-        <v>2961.882046708145</v>
+        <v>3986265.467844138</v>
       </c>
       <c r="I96">
-        <v>453.6174382424323</v>
+        <v>1116919.419446605</v>
       </c>
       <c r="J96">
-        <v>6.0752727705796</v>
+        <v>4841231.148146887</v>
       </c>
       <c r="K96">
-        <v>36.81031638709208</v>
+        <v>3984397.687749465</v>
       </c>
     </row>
     <row r="97" spans="1:11">
@@ -3805,22 +3805,22 @@
         <v>194.142</v>
       </c>
       <c r="F97">
-        <v>24.1281392239716</v>
+        <v>1116402.255627834</v>
       </c>
       <c r="G97">
-        <v>462.3818017159738</v>
+        <v>4841699.941228733</v>
       </c>
       <c r="H97">
-        <v>2975.417020243878</v>
+        <v>3986274.148859488</v>
       </c>
       <c r="I97">
-        <v>518.9024199787747</v>
+        <v>1116999.706216448</v>
       </c>
       <c r="J97">
-        <v>-49.85249430389484</v>
+        <v>4841182.496532638</v>
       </c>
       <c r="K97">
-        <v>-309.4254951619753</v>
+        <v>3984080.389159362</v>
       </c>
     </row>
     <row r="98" spans="1:11">
@@ -3840,22 +3840,22 @@
         <v>195.142</v>
       </c>
       <c r="F98">
-        <v>23.79079617898752</v>
+        <v>1116401.674114366</v>
       </c>
       <c r="G98">
-        <v>478.356796447923</v>
+        <v>4841716.454039177</v>
       </c>
       <c r="H98">
-        <v>2988.571325310839</v>
+        <v>3986282.58572299</v>
       </c>
       <c r="I98">
-        <v>585.7949843292929</v>
+        <v>1117081.969974136</v>
       </c>
       <c r="J98">
-        <v>-105.7802613783695</v>
+        <v>4841133.844918388</v>
       </c>
       <c r="K98">
-        <v>-672.1914792893234</v>
+        <v>3983747.941932757</v>
       </c>
     </row>
     <row r="99" spans="1:11">
@@ -3875,22 +3875,22 @@
         <v>196.142</v>
       </c>
       <c r="F99">
-        <v>23.46721483140934</v>
+        <v>1116401.116323374</v>
       </c>
       <c r="G99">
-        <v>494.3317911798724</v>
+        <v>4841732.96684962</v>
       </c>
       <c r="H99">
-        <v>3001.365789912249</v>
+        <v>3986290.791793237</v>
       </c>
       <c r="I99">
-        <v>654.3347165369123</v>
+        <v>1117166.259401175</v>
       </c>
       <c r="J99">
-        <v>-161.7080284528442</v>
+        <v>4841085.193304137</v>
       </c>
       <c r="K99">
-        <v>-1051.487635994952</v>
+        <v>3983400.34606965</v>
       </c>
     </row>
     <row r="100" spans="1:11">
@@ -3910,22 +3910,22 @@
         <v>197.142</v>
       </c>
       <c r="F100">
-        <v>23.15648447028023</v>
+        <v>1116400.580684971</v>
       </c>
       <c r="G100">
-        <v>510.3067859118216</v>
+        <v>4841749.479660062</v>
       </c>
       <c r="H100">
-        <v>3013.819578087679</v>
+        <v>3986298.779361594</v>
       </c>
       <c r="I100">
-        <v>724.5621765947468</v>
+        <v>1117252.624377811</v>
       </c>
       <c r="J100">
-        <v>-217.6357955273189</v>
+        <v>4841036.541689888</v>
       </c>
       <c r="K100">
-        <v>-1447.31396527886</v>
+        <v>3983037.60157004</v>
       </c>
     </row>
     <row r="101" spans="1:11">
@@ -3945,22 +3945,22 @@
         <v>198.142</v>
       </c>
       <c r="F101">
-        <v>22.85777656872509</v>
+        <v>1116400.065770938</v>
       </c>
       <c r="G101">
-        <v>526.2817806437708</v>
+        <v>4841765.992470506</v>
       </c>
       <c r="H101">
-        <v>3025.950362571995</v>
+        <v>3986306.559762941</v>
       </c>
       <c r="I101">
-        <v>796.5189232484265</v>
+        <v>1117341.116012542</v>
       </c>
       <c r="J101">
-        <v>-273.5635626017931</v>
+        <v>4840987.890075639</v>
       </c>
       <c r="K101">
-        <v>-1859.670467141045</v>
+        <v>3982659.708433928</v>
       </c>
     </row>
     <row r="102" spans="1:11">
@@ -3980,22 +3980,22 @@
         <v>199.142</v>
       </c>
       <c r="F102">
-        <v>22.57033548990681</v>
+        <v>1116399.570278705</v>
       </c>
       <c r="G102">
-        <v>542.2567753757203</v>
+        <v>4841782.505280948</v>
       </c>
       <c r="H102">
-        <v>3037.774475624718</v>
+        <v>3986314.143472407</v>
       </c>
       <c r="I102">
-        <v>870.2475385894608</v>
+        <v>1117431.786672367</v>
       </c>
       <c r="J102">
-        <v>-329.4913296762679</v>
+        <v>4840939.238461389</v>
       </c>
       <c r="K102">
-        <v>-2288.557141581512</v>
+        <v>3982266.666661314</v>
       </c>
     </row>
     <row r="103" spans="1:11">
@@ -4015,22 +4015,22 @@
         <v>200.142</v>
       </c>
       <c r="F103">
-        <v>22.29347044588479</v>
+        <v>1116399.093017489</v>
       </c>
       <c r="G103">
-        <v>558.2317701076695</v>
+        <v>4841799.018091391</v>
       </c>
       <c r="H103">
-        <v>3049.307041260252</v>
+        <v>3986321.540190181</v>
       </c>
       <c r="I103">
-        <v>945.7916532541852</v>
+        <v>1117524.690013775</v>
       </c>
       <c r="J103">
-        <v>-385.4190967507425</v>
+        <v>4840890.586847139</v>
       </c>
       <c r="K103">
-        <v>-2733.973988600259</v>
+        <v>3981858.476252197</v>
       </c>
     </row>
     <row r="104" spans="1:11">
@@ -4050,22 +4050,22 @@
         <v>201.142</v>
       </c>
       <c r="F104">
-        <v>22.02654851457419</v>
+        <v>1116398.632896255</v>
       </c>
       <c r="G104">
-        <v>574.2067648396188</v>
+        <v>4841815.530901834</v>
       </c>
       <c r="H104">
-        <v>3060.562091565065</v>
+        <v>3986328.758916114</v>
       </c>
       <c r="I104">
-        <v>1023.195972243217</v>
+        <v>1117619.881014496</v>
       </c>
       <c r="J104">
-        <v>-441.3468638252173</v>
+        <v>4840841.935232889</v>
       </c>
       <c r="K104">
-        <v>-3195.921008197287</v>
+        <v>3981435.137206578</v>
       </c>
     </row>
     <row r="105" spans="1:11">
@@ -4085,22 +4085,22 @@
         <v>202.142</v>
       </c>
       <c r="F105">
-        <v>21.76898855413115</v>
+        <v>1116398.18891323</v>
       </c>
       <c r="G105">
-        <v>590.1817595715681</v>
+        <v>4841832.043712276</v>
       </c>
       <c r="H105">
-        <v>3071.552669345952</v>
+        <v>3986335.808015559</v>
       </c>
       <c r="I105">
-        <v>1102.506301376687</v>
+        <v>1117717.416006035</v>
       </c>
       <c r="J105">
-        <v>-497.2746308996919</v>
+        <v>4840793.283618639</v>
       </c>
       <c r="K105">
-        <v>-3674.398200372593</v>
+        <v>3980996.649524456</v>
       </c>
     </row>
     <row r="106" spans="1:11">
@@ -4120,22 +4120,22 @@
         <v>203.142</v>
       </c>
       <c r="F106">
-        <v>21.52025588159283</v>
+        <v>1116397.760146723</v>
       </c>
       <c r="G106">
-        <v>606.1567543035173</v>
+        <v>4841848.55652272</v>
       </c>
       <c r="H106">
-        <v>3082.290918992742</v>
+        <v>3986342.695277642</v>
       </c>
       <c r="I106">
-        <v>1183.769574400902</v>
+        <v>1117817.35270701</v>
       </c>
       <c r="J106">
-        <v>-553.2023979741662</v>
+        <v>4840744.63200439</v>
       </c>
       <c r="K106">
-        <v>-4169.405565126176</v>
+        <v>3980543.013205832</v>
       </c>
     </row>
     <row r="107" spans="1:11">
@@ -4155,22 +4155,22 @@
         <v>204.142</v>
       </c>
       <c r="F107">
-        <v>21.27985760489246</v>
+        <v>1116397.345747085</v>
       </c>
       <c r="G107">
-        <v>622.1317490354667</v>
+        <v>4841865.069333163</v>
       </c>
       <c r="H107">
-        <v>3092.788167142874</v>
+        <v>3986349.427967004</v>
       </c>
       <c r="I107">
-        <v>1267.0338807625</v>
+        <v>1117919.750257307</v>
       </c>
       <c r="J107">
-        <v>-609.1301650486408</v>
+        <v>4840695.980390139</v>
       </c>
       <c r="K107">
-        <v>-4680.943102458043</v>
+        <v>3980074.228250707</v>
       </c>
     </row>
   </sheetData>
